--- a/200_logic_detail/201704-0011.xlsx
+++ b/200_logic_detail/201704-0011.xlsx
@@ -1201,7 +1201,7 @@
   <dimension ref="B2:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
